--- a/specs/ifa_simple-calculations.xlsx
+++ b/specs/ifa_simple-calculations.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>Manufacturer</t>
   </si>
@@ -108,6 +108,15 @@
   </si>
   <si>
     <t>NXP-AN2731.pdf (9.1 - Inverted-F Antenna)</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>CPWG feedline impedance of 49.95ohm generated with 91mil trace width and 10mil ground spacing on each side.</t>
+  </si>
+  <si>
+    <t>One row of vias placed 20mils from the keepout, 118mils apart from each other, and 61mils away from the CPWG.</t>
   </si>
 </sst>
 </file>
@@ -536,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,7 +685,7 @@
         <v>7.8</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" ref="D14:D22" si="0">C14*0.0393701*1000</f>
+        <f t="shared" ref="D14:D19" si="0">C14*0.0393701*1000</f>
         <v>307.08677999999998</v>
       </c>
     </row>
@@ -861,6 +870,19 @@
       </c>
       <c r="D30" s="2">
         <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
